--- a/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\java\com\reality\util\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9063B-AC03-441D-8EF0-F8CCE8626DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A703C891-E0F8-4378-8842-F0799AFEA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22015" yWindow="-104" windowWidth="22325" windowHeight="11924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,8 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,15 +375,39 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -703,7 +725,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -715,66 +737,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>45078</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="17"/>
@@ -824,17 +846,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000D8F77CBF0A2534F9509FAF6232E7B97" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b56741c68818c02055f012ce5e44eb4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b767478-c6a5-46ac-ac91-475c6fa29b26" xmlns:ns3="75365404-5c48-41d8-865a-7f2026b82160" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3797a4ed2471239fdb7af31dd85dd864" ns2:_="" ns3:_="">
     <xsd:import namespace="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
@@ -1045,6 +1056,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1055,17 +1077,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
-    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1084,6 +1095,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
+    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
   <ds:schemaRefs>

--- a/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\java\com\reality\util\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A703C891-E0F8-4378-8842-F0799AFEA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29CBBB-66DD-4DB2-AF36-9BC5062B71AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22015" yWindow="-104" windowWidth="22325" windowHeight="11924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16589" windowHeight="9539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,8 +337,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +346,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,38 +379,38 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +729,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -751,45 +755,45 @@
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="1"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="1"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="1"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="1"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="1"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="1"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="9" t="s">
@@ -799,39 +803,39 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" ht="19.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\java\com\reality\util\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29CBBB-66DD-4DB2-AF36-9BC5062B71AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922A242-7E35-4CC4-B466-FC2A77FCADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="16589" windowHeight="9539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,49 +335,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -406,10 +376,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -726,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -740,102 +743,125 @@
     <col min="4" max="4" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="12">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="14"/>
+      <c r="B3" s="18">
         <v>45078</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="5"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="5"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="5"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="5"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="5"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="5"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="9" t="s">
+    <row r="5" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="14"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="14"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="2:4" ht="19.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="14"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="14"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -850,6 +876,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000D8F77CBF0A2534F9509FAF6232E7B97" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b56741c68818c02055f012ce5e44eb4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b767478-c6a5-46ac-ac91-475c6fa29b26" xmlns:ns3="75365404-5c48-41d8-865a-7f2026b82160" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3797a4ed2471239fdb7af31dd85dd864" ns2:_="" ns3:_="">
     <xsd:import namespace="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
@@ -1060,27 +1106,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
+    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1097,23 +1142,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
-    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\java\com\reality\util\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922A242-7E35-4CC4-B466-FC2A77FCADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE69865-56C7-4AD8-B731-F44434229C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="16589" windowHeight="9539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,16 +337,55 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,45 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -744,124 +744,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="18">
+      <c r="A3" s="5"/>
+      <c r="B3" s="15">
         <v>45078</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="19.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -876,26 +876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000D8F77CBF0A2534F9509FAF6232E7B97" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b56741c68818c02055f012ce5e44eb4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b767478-c6a5-46ac-ac91-475c6fa29b26" xmlns:ns3="75365404-5c48-41d8-865a-7f2026b82160" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3797a4ed2471239fdb7af31dd85dd864" ns2:_="" ns3:_="">
     <xsd:import namespace="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
@@ -1106,10 +1086,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
+    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1126,20 +1137,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
-    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\java\com\reality\util\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE69865-56C7-4AD8-B731-F44434229C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554DA568-0B59-4BFF-ADE3-31540C65682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="16589" windowHeight="9539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -749,7 +749,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -757,7 +757,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="15">
         <v>45078</v>
@@ -765,7 +765,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -777,43 +777,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="5"/>
       <c r="B11" s="12" t="s">
         <v>4</v>
@@ -821,43 +821,43 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="5"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
     </row>
-    <row r="13" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="5"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="19.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="19.05" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>

--- a/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/java/com/reality/util/excel/Excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\java\com\reality\util\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554DA568-0B59-4BFF-ADE3-31540C65682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DA24BA-63F2-4357-ADDB-B2CF187EF274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16589" windowHeight="9539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22015" yWindow="-104" windowWidth="22325" windowHeight="11924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>新入社員の日報</t>
   </si>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>所感</t>
+  </si>
+  <si>
+    <t>フィードバック</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -729,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -863,12 +867,56 @@
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.05" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B20:D26"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B12:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -876,6 +924,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000D8F77CBF0A2534F9509FAF6232E7B97" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b56741c68818c02055f012ce5e44eb4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b767478-c6a5-46ac-ac91-475c6fa29b26" xmlns:ns3="75365404-5c48-41d8-865a-7f2026b82160" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3797a4ed2471239fdb7af31dd85dd864" ns2:_="" ns3:_="">
     <xsd:import namespace="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
@@ -1086,27 +1154,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="75365404-5c48-41d8-865a-7f2026b82160" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0b767478-c6a5-46ac-ac91-475c6fa29b26">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
+    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1123,23 +1190,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
-    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>